--- a/nomii_real/data/Orders.xlsx
+++ b/nomii_real/data/Orders.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="42">
   <si>
     <t>OrderID</t>
   </si>
@@ -70,6 +70,12 @@
     <t>add6407f-8225-46ae-be70-e5a3c9a9b5c7</t>
   </si>
   <si>
+    <t>89bdc2f6-0e22-47a8-b4f2-b7b5696fc495</t>
+  </si>
+  <si>
+    <t>0947da20-6ab3-444d-97b4-2aa9c1662a75</t>
+  </si>
+  <si>
     <t>R1004</t>
   </si>
   <si>
@@ -112,6 +118,9 @@
     <t>P2001</t>
   </si>
   <si>
+    <t>P2005</t>
+  </si>
+  <si>
     <t>Pending</t>
   </si>
   <si>
@@ -128,6 +137,9 @@
   </si>
   <si>
     <t>2025-08-09</t>
+  </si>
+  <si>
+    <t>2025-08-10</t>
   </si>
 </sst>
 </file>
@@ -489,7 +501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -523,19 +535,19 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D2">
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G2" s="2">
         <v>45876</v>
@@ -546,19 +558,19 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3">
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G3" s="2">
         <v>45875</v>
@@ -569,19 +581,19 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D4">
         <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G4" s="2">
         <v>45875</v>
@@ -592,19 +604,19 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G5" s="2">
         <v>45876</v>
@@ -615,19 +627,19 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D6">
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F6" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G6" s="2">
         <v>45879</v>
@@ -638,19 +650,19 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D7">
         <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G7" s="2">
         <v>45876</v>
@@ -661,19 +673,19 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D8">
         <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G8" s="2">
         <v>45875</v>
@@ -684,19 +696,19 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D9">
         <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F9" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G9" s="2">
         <v>45877</v>
@@ -707,19 +719,19 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D10">
         <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F10" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G10" s="2">
         <v>45878</v>
@@ -730,19 +742,19 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D11">
         <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F11" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G11" s="2">
         <v>45878</v>
@@ -753,19 +765,59 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G12" t="s">
-        <v>37</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
